--- a/storage/FileB.xlsx
+++ b/storage/FileB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\elearning-smaalmultazam\storage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C9CD496-C6E5-4EDD-B6C7-11B0C4C12226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC06478D-6316-4811-854E-174F24E1926B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{982770DD-FF4C-45B0-AA95-B1D367BF5D3B}"/>
   </bookViews>
@@ -4770,7 +4770,7 @@
   <dimension ref="A1:B3922"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection sqref="A1:B3922"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
